--- a/biology/Botanique/Taphrina_pruni/Taphrina_pruni.xlsx
+++ b/biology/Botanique/Taphrina_pruni/Taphrina_pruni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taphrina pruni est une espèce de champignons ascomycètes de la famille des Taphrinaceae. Ce champignon est l'agent pathogène d'une maladie cryptogamique galligène sur Prunus spinosa, Prunus cerasifera et Prunus domestica[2] nommée Cloque du prunier[3], balai de sorcière du prunier[4], maladie des pochettes[4] et pochettes du prunier[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taphrina pruni est une espèce de champignons ascomycètes de la famille des Taphrinaceae. Ce champignon est l'agent pathogène d'une maladie cryptogamique galligène sur Prunus spinosa, Prunus cerasifera et Prunus domestica nommée Cloque du prunier, balai de sorcière du prunier, maladie des pochettes et pochettes du prunier.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 août 2014)[1] :	
-[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 août 2014) :	
+ :
 Ascomyces pruni (Tul.) Berk. &amp; Broome, 1876
 Exoascus pruni (Tul.) Fuckel, 1870
 Taphrina pruni Tul., 1866</t>
